--- a/tabs/crosstabs/BDI.II.xlsx
+++ b/tabs/crosstabs/BDI.II.xlsx
@@ -176,10 +176,10 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">4 (1.83 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.83 %)</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1089,10 +1089,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2076,13 +2076,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -2090,16 +2090,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3138,10 +3138,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -3159,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -3200,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
@@ -3960,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4518,13 +4518,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -4532,16 +4532,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -5571,10 +5571,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -5582,13 +5582,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -6498,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -6506,13 +6506,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>

--- a/tabs/crosstabs/BDI.II.xlsx
+++ b/tabs/crosstabs/BDI.II.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+  <si>
+    <t xml:space="preserve">Issue</t>
   </si>
   <si>
     <t xml:space="preserve">IH</t>
@@ -35,192 +35,267 @@
     <t xml:space="preserve">NT2</t>
   </si>
   <si>
+    <t xml:space="preserve">No time for hobbies due to sleepiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.16 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor-quality night sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.46 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.94 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.38 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversleeping and missing something important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.33 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossibility to sport due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of motherhood due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.92 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No problem reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3.49 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling unrefreshed after daytime/nocturnal sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5.88 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems to find the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightmares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1.83 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The necessity to take medication due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypnagogic hallucinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (2.29 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems with concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.75 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of time spent with children due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of the disease getting worse in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (4.13 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of losing the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited work/home performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (3.21 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cataplexy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (5.50 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of incompetence (work area)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (5.81 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving ban/difficulty to drive due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (5.05 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty waking up after a nocturnal sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (4.65 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (8.82 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited social life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stigmatization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of inferiority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (6.98 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (7.80 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling asleep in calm situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (8.26 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperative sleepiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (11.93 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad mood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (11.63 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (7.34 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (17.44 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (9.17 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (23.53 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0 (0.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.38 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">10 (11.63 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (7.34 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (8.82 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (5.50 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (4.65 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (3.21 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.33 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (5.05 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (5.81 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (8.26 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (17.44 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (9.17 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (23.53 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (3.49 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (2.29 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.94 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.92 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (4.13 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.88 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (6.98 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (7.80 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.16 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (11.93 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.46 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.83 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.75 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
+    <t xml:space="preserve">1 (1.37 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.59 %)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (1.18 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (1.37 %)</t>
+    <t xml:space="preserve">2 (2.74 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.76 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (1.64 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (2.35 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (3.28 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.11 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (2.94 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (3.53 %)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (5.29 %)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 (4.92 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.48 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (6.85 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (8.20 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (6.56 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (4.71 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (11.48 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (8.22 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (14.71 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (8.82 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (10.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (9.84 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 (13.11 %)</t>
   </si>
   <si>
@@ -230,75 +305,12 @@
     <t xml:space="preserve">4 (11.76 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (4.92 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (2.94 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (3.28 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (6.85 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (3.53 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.48 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (8.82 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (8.20 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">22 (12.94 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (9.84 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">11 (15.07 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (4.11 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.59 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.64 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (2.35 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.76 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (4.71 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (11.48 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (8.22 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (14.71 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (10.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.74 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (6.56 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">IH_1</t>
   </si>
   <si>
@@ -335,25 +347,109 @@
     <t xml:space="preserve">NT2_4</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (6.67 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.50 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.84 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (9.09 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (16.67 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 (1.68 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (2.00 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 (7.50 %)</t>
   </si>
   <si>
+    <t xml:space="preserve">2 (18.18 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (5.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.27 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (10.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (4.55 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (2.52 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (22.22 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (3.36 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (12.50 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (4.20 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (20.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (11.11 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (7.56 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.82 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (10.00 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 (5.04 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (18.18 %)</t>
+    <t xml:space="preserve">2 (33.33 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (8.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (5.88 %)</t>
   </si>
   <si>
     <t xml:space="preserve">5 (11.36 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (16.67 %)</t>
+    <t xml:space="preserve">3 (15.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (9.24 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (9.09 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13.45 %)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (13.33 %)</t>
@@ -362,54 +458,6 @@
     <t xml:space="preserve">5 (10.00 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (12.50 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (15.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (11.11 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (7.56 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.82 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.50 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.55 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (6.67 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (6.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (10.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (4.20 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (9.24 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.09 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (9.09 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (5.00 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">8 (20.00 %)</t>
   </si>
   <si>
@@ -419,46 +467,10 @@
     <t xml:space="preserve">4 (26.67 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (8.00 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 (37.50 %)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (33.33 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (3.36 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.84 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (10.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.27 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (20.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (5.88 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13.45 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (22.22 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (33.33 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (4.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (2.52 %)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -823,164 +835,164 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -988,254 +1000,254 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1283,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1285,419 +1297,419 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1719,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1736,16 +1748,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1753,509 +1765,509 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2277,40 +2289,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -2318,40 +2330,40 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2359,1229 +2371,1229 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>126</v>
-      </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
       <c r="L16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
         <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s">
         <v>119</v>
       </c>
-      <c r="G20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="J25" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
         <v>136</v>
       </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
       <c r="J26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="M27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="M28" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="J29" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
         <v>119</v>
       </c>
-      <c r="G30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>128</v>
-      </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" t="s">
         <v>136</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>144</v>
-      </c>
       <c r="J32" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3603,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -3620,16 +3632,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3637,509 +3649,509 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4161,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -4178,16 +4190,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4195,509 +4207,509 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
         <v>136</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
         <v>136</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>144</v>
-      </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4719,16 +4731,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -4736,16 +4748,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4753,509 +4765,509 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5291,13 +5303,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5305,419 +5317,419 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5753,13 +5765,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5767,419 +5779,419 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6215,13 +6227,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6229,419 +6241,419 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
